--- a/Acessibilidade/relatorios/relatorio_principal.xlsx
+++ b/Acessibilidade/relatorios/relatorio_principal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UwAmp\www\2sem_prj_integrador\Acessibilidade\relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB872B3-7269-4E7F-A9E0-8BAEFFD0B7D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio" sheetId="1" r:id="rId1"/>
@@ -21,8 +22,13 @@
     <definedName name="Gravidade">Legenda!$B$2:$B$4</definedName>
     <definedName name="Status">Legenda!$B$7:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -534,7 +540,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -825,7 +831,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -901,101 +958,6 @@
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFA34F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6A5FFB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1396,7 +1358,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1404,6 +1365,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -1741,7 +1703,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1749,6 +1710,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -3000,24 +2962,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="relatorio" displayName="relatorio" ref="A1:O1048576" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:O1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="relatorio" displayName="relatorio" ref="A1:O1048576" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:O1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Persona"/>
-    <tableColumn id="3" name="Software"/>
-    <tableColumn id="4" name="Erro"/>
-    <tableColumn id="5" name="Url" dataDxfId="11"/>
-    <tableColumn id="6" name="Gravidade"/>
-    <tableColumn id="7" name="Descrição"/>
-    <tableColumn id="8" name="Ação corretiva"/>
-    <tableColumn id="9" name="Status "/>
-    <tableColumn id="10" name="D. Atual"/>
-    <tableColumn id="11" name="D. Limite"/>
-    <tableColumn id="12" name="D. Execução"/>
-    <tableColumn id="13" name="Observações"/>
-    <tableColumn id="14" name="Titular do Erro"/>
-    <tableColumn id="15" name="Corretor do Erro"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Persona"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Software"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Erro"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Url" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gravidade"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Descrição"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ação corretiva"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="D. Atual"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="D. Limite"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="D. Execução"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Observações"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Titular do Erro"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Corretor do Erro"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3319,11 +3281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3844,7 +3806,9 @@
       <c r="N11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -5360,35 +5324,35 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Leve"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Moderado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Crítico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Sem ação"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Atribuído"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Não Atribuído"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Corrigido"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Insira um valor valido" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Insira um valor valido" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Gravidade</formula1>
     </dataValidation>
   </dataValidations>
@@ -5401,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5497,7 +5461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">

--- a/Acessibilidade/relatorios/relatorio_principal.xlsx
+++ b/Acessibilidade/relatorios/relatorio_principal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UwAmp\www\2sem_prj_integrador\Acessibilidade\relatorios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB872B3-7269-4E7F-A9E0-8BAEFFD0B7D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B8CAA-2420-49DC-92C6-C6682EF09A8B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relatorio!$A$1:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relatorio'!$A$1:$O$23</definedName>
     <definedName name="Gravidade">Legenda!$B$2:$B$4</definedName>
     <definedName name="Status">Legenda!$B$7:$B$10</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -1285,10 +1285,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3284,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J2" s="16">
         <v>43341</v>
@@ -3398,7 +3398,9 @@
       <c r="N2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>29</v>
@@ -3444,7 +3446,9 @@
       <c r="N3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
@@ -3659,7 +3663,7 @@
         <v>63</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J8" s="16">
         <v>43341</v>
@@ -3674,7 +3678,9 @@
       <c r="N8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="17"/>
+      <c r="O8" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -3705,7 +3711,7 @@
         <v>63</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J9" s="19">
         <v>43342</v>
@@ -3718,7 +3724,9 @@
       <c r="N9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
@@ -3749,7 +3757,7 @@
         <v>70</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J10" s="16">
         <v>43343</v>
@@ -3762,7 +3770,9 @@
       <c r="N10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="17"/>
+      <c r="O10" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -3793,7 +3803,7 @@
         <v>150</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J11" s="16">
         <v>43373</v>
@@ -4707,7 +4717,7 @@
       </c>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-      <c r="N32" s="37" t="s">
+      <c r="N32" s="39" t="s">
         <v>65</v>
       </c>
       <c r="O32" s="37"/>
@@ -4748,7 +4758,7 @@
       </c>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="39" t="s">
         <v>65</v>
       </c>
       <c r="O33" s="37"/>
@@ -4789,7 +4799,7 @@
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="37" t="s">
+      <c r="N34" s="39" t="s">
         <v>65</v>
       </c>
       <c r="O34" s="17"/>
@@ -5402,14 +5412,14 @@
         <v>80</v>
       </c>
       <c r="B2" s="26">
-        <f>COUNTIF(Relatorio!I2:I65,"Corrigido")</f>
-        <v>0</v>
+        <f>COUNTIF('Relatorio'!I2:I65,"Corrigido")</f>
+        <v>6</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="26">
-        <f>COUNTIF(Relatorio!F2:F65,"Crítico")</f>
+        <f>COUNTIF('Relatorio'!F2:F65,"Crítico")</f>
         <v>10</v>
       </c>
     </row>
@@ -5418,14 +5428,14 @@
         <v>21</v>
       </c>
       <c r="B3" s="26">
-        <f>COUNTIF(Relatorio!I2:I65,"Atribuído")</f>
-        <v>33</v>
+        <f>COUNTIF('Relatorio'!I2:I65,"Atribuído")</f>
+        <v>27</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="26">
-        <f>COUNTIF(Relatorio!F2:F65,"Moderado")</f>
+        <f>COUNTIF('Relatorio'!F2:F65,"Moderado")</f>
         <v>21</v>
       </c>
     </row>
@@ -5434,14 +5444,14 @@
         <v>57</v>
       </c>
       <c r="B4" s="26">
-        <f>COUNTIF(Relatorio!I2:I65,"Não Atribuído")</f>
+        <f>COUNTIF('Relatorio'!I2:I65,"Não Atribuído")</f>
         <v>0</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="26">
-        <f>COUNTIF(Relatorio!F2:F65,"Leve")</f>
+        <f>COUNTIF('Relatorio'!F2:F65,"Leve")</f>
         <v>2</v>
       </c>
     </row>
@@ -5450,7 +5460,7 @@
         <v>139</v>
       </c>
       <c r="B5" s="26">
-        <f>COUNTIF(Relatorio!I5:I68,"Sem Ação")</f>
+        <f>COUNTIF('Relatorio'!I5:I68,"Sem Ação")</f>
         <v>0</v>
       </c>
     </row>
